--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H2">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I2">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J2">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.58867</v>
+        <v>0.06440966666666667</v>
       </c>
       <c r="N2">
-        <v>1.76601</v>
+        <v>0.193229</v>
       </c>
       <c r="O2">
-        <v>0.417215647057406</v>
+        <v>0.02029571630342752</v>
       </c>
       <c r="P2">
-        <v>0.4172156470574061</v>
+        <v>0.02029571630342752</v>
       </c>
       <c r="Q2">
-        <v>3.86567168063</v>
+        <v>0.2797928009144444</v>
       </c>
       <c r="R2">
-        <v>34.79104512567</v>
+        <v>2.51813520823</v>
       </c>
       <c r="S2">
-        <v>0.1516192777751365</v>
+        <v>0.005179128287334664</v>
       </c>
       <c r="T2">
-        <v>0.1516192777751365</v>
+        <v>0.005179128287334664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H3">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I3">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J3">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.822279</v>
+        <v>0.8966493333333334</v>
       </c>
       <c r="N3">
-        <v>2.466837</v>
+        <v>2.689948</v>
       </c>
       <c r="O3">
-        <v>0.5827843529425939</v>
+        <v>0.2825374114598339</v>
       </c>
       <c r="P3">
-        <v>0.582784352942594</v>
+        <v>0.2825374114598339</v>
       </c>
       <c r="Q3">
-        <v>5.399732692131</v>
+        <v>3.895005849195555</v>
       </c>
       <c r="R3">
-        <v>48.597594229179</v>
+        <v>35.05505264276</v>
       </c>
       <c r="S3">
-        <v>0.2117881803211671</v>
+        <v>0.07209883494847721</v>
       </c>
       <c r="T3">
-        <v>0.2117881803211671</v>
+        <v>0.07209883494847721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.440526333333334</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H4">
-        <v>19.321579</v>
+        <v>13.03187</v>
       </c>
       <c r="I4">
-        <v>0.3564200560729107</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J4">
-        <v>0.3564200560729107</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.58867</v>
+        <v>2.212500666666667</v>
       </c>
       <c r="N4">
-        <v>1.76601</v>
+        <v>6.637502</v>
       </c>
       <c r="O4">
-        <v>0.417215647057406</v>
+        <v>0.6971668722367386</v>
       </c>
       <c r="P4">
-        <v>0.4172156470574061</v>
+        <v>0.6971668722367386</v>
       </c>
       <c r="Q4">
-        <v>3.791344636643334</v>
+        <v>9.61100702097111</v>
       </c>
       <c r="R4">
-        <v>34.12210172979</v>
+        <v>86.49906318874001</v>
       </c>
       <c r="S4">
-        <v>0.1487040243186964</v>
+        <v>0.1779053577125608</v>
       </c>
       <c r="T4">
-        <v>0.1487040243186964</v>
+        <v>0.1779053577125608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>19.321579</v>
       </c>
       <c r="I5">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J5">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.822279</v>
+        <v>0.06440966666666667</v>
       </c>
       <c r="N5">
-        <v>2.466837</v>
+        <v>0.193229</v>
       </c>
       <c r="O5">
-        <v>0.5827843529425939</v>
+        <v>0.02029571630342752</v>
       </c>
       <c r="P5">
-        <v>0.582784352942594</v>
+        <v>0.02029571630342752</v>
       </c>
       <c r="Q5">
-        <v>5.295909552847</v>
+        <v>0.4148321542878889</v>
       </c>
       <c r="R5">
-        <v>47.663185975623</v>
+        <v>3.733489388591</v>
       </c>
       <c r="S5">
-        <v>0.2077160317542143</v>
+        <v>0.00767878565047621</v>
       </c>
       <c r="T5">
-        <v>0.2077160317542143</v>
+        <v>0.00767878565047621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.216374</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H6">
-        <v>0.6491220000000001</v>
+        <v>19.321579</v>
       </c>
       <c r="I6">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J6">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.58867</v>
+        <v>0.8966493333333334</v>
       </c>
       <c r="N6">
-        <v>1.76601</v>
+        <v>2.689948</v>
       </c>
       <c r="O6">
-        <v>0.417215647057406</v>
+        <v>0.2825374114598339</v>
       </c>
       <c r="P6">
-        <v>0.4172156470574061</v>
+        <v>0.2825374114598339</v>
       </c>
       <c r="Q6">
-        <v>0.12737288258</v>
+        <v>5.774893643099112</v>
       </c>
       <c r="R6">
-        <v>1.14635594322</v>
+        <v>51.974042787892</v>
       </c>
       <c r="S6">
-        <v>0.00499581600829833</v>
+        <v>0.1068966568316722</v>
       </c>
       <c r="T6">
-        <v>0.004995816008298331</v>
+        <v>0.1068966568316722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.216374</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H7">
-        <v>0.6491220000000001</v>
+        <v>19.321579</v>
       </c>
       <c r="I7">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J7">
-        <v>0.01197418180150597</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.822279</v>
+        <v>2.212500666666667</v>
       </c>
       <c r="N7">
-        <v>2.466837</v>
+        <v>6.637502</v>
       </c>
       <c r="O7">
-        <v>0.5827843529425939</v>
+        <v>0.6971668722367386</v>
       </c>
       <c r="P7">
-        <v>0.582784352942594</v>
+        <v>0.6971668722367386</v>
       </c>
       <c r="Q7">
-        <v>0.177919796346</v>
+        <v>14.24966880618422</v>
       </c>
       <c r="R7">
-        <v>1.601278167114</v>
+        <v>128.247019255658</v>
       </c>
       <c r="S7">
-        <v>0.00697836579320764</v>
+        <v>0.2637696987129631</v>
       </c>
       <c r="T7">
-        <v>0.006978365793207642</v>
+        <v>0.2637696987129631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.846355333333333</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H8">
-        <v>14.539066</v>
+        <v>1.048609</v>
       </c>
       <c r="I8">
-        <v>0.2681983040292798</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J8">
-        <v>0.2681983040292799</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.58867</v>
+        <v>0.06440966666666667</v>
       </c>
       <c r="N8">
-        <v>1.76601</v>
+        <v>0.193229</v>
       </c>
       <c r="O8">
-        <v>0.417215647057406</v>
+        <v>0.02029571630342752</v>
       </c>
       <c r="P8">
-        <v>0.4172156470574061</v>
+        <v>0.02029571630342752</v>
       </c>
       <c r="Q8">
-        <v>2.852903994073333</v>
+        <v>0.02251351871788889</v>
       </c>
       <c r="R8">
-        <v>25.67613594666</v>
+        <v>0.202621668461</v>
       </c>
       <c r="S8">
-        <v>0.1118965289552749</v>
+        <v>0.0004167383909027419</v>
       </c>
       <c r="T8">
-        <v>0.1118965289552749</v>
+        <v>0.0004167383909027419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3495363333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.048609</v>
+      </c>
+      <c r="I9">
+        <v>0.02053331770470026</v>
+      </c>
+      <c r="J9">
+        <v>0.02053331770470026</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8966493333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.689948</v>
+      </c>
+      <c r="O9">
+        <v>0.2825374114598339</v>
+      </c>
+      <c r="P9">
+        <v>0.2825374114598339</v>
+      </c>
+      <c r="Q9">
+        <v>0.3134115202591112</v>
+      </c>
+      <c r="R9">
+        <v>2.820703682332001</v>
+      </c>
+      <c r="S9">
+        <v>0.005801430432968389</v>
+      </c>
+      <c r="T9">
+        <v>0.005801430432968389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.846355333333333</v>
-      </c>
-      <c r="H9">
-        <v>14.539066</v>
-      </c>
-      <c r="I9">
-        <v>0.2681983040292798</v>
-      </c>
-      <c r="J9">
-        <v>0.2681983040292799</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.822279</v>
-      </c>
-      <c r="N9">
-        <v>2.466837</v>
-      </c>
-      <c r="O9">
-        <v>0.5827843529425939</v>
-      </c>
-      <c r="P9">
-        <v>0.582784352942594</v>
-      </c>
-      <c r="Q9">
-        <v>3.985056217138</v>
-      </c>
-      <c r="R9">
-        <v>35.865505954242</v>
-      </c>
-      <c r="S9">
-        <v>0.1563017750740049</v>
-      </c>
-      <c r="T9">
-        <v>0.156301775074005</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3495363333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.048609</v>
+      </c>
+      <c r="I10">
+        <v>0.02053331770470026</v>
+      </c>
+      <c r="J10">
+        <v>0.02053331770470026</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.212500666666667</v>
+      </c>
+      <c r="N10">
+        <v>6.637502</v>
+      </c>
+      <c r="O10">
+        <v>0.6971668722367386</v>
+      </c>
+      <c r="P10">
+        <v>0.6971668722367386</v>
+      </c>
+      <c r="Q10">
+        <v>0.7733493705242224</v>
+      </c>
+      <c r="R10">
+        <v>6.960144334718001</v>
+      </c>
+      <c r="S10">
+        <v>0.01431514888082913</v>
+      </c>
+      <c r="T10">
+        <v>0.01431514888082913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.888867</v>
+      </c>
+      <c r="H11">
+        <v>17.666601</v>
+      </c>
+      <c r="I11">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="J11">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.06440966666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.193229</v>
+      </c>
+      <c r="O11">
+        <v>0.02029571630342752</v>
+      </c>
+      <c r="P11">
+        <v>0.02029571630342752</v>
+      </c>
+      <c r="Q11">
+        <v>0.3792999605143334</v>
+      </c>
+      <c r="R11">
+        <v>3.413699644629</v>
+      </c>
+      <c r="S11">
+        <v>0.007021063974713903</v>
+      </c>
+      <c r="T11">
+        <v>0.007021063974713903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.888867</v>
+      </c>
+      <c r="H12">
+        <v>17.666601</v>
+      </c>
+      <c r="I12">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="J12">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8966493333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.689948</v>
+      </c>
+      <c r="O12">
+        <v>0.2825374114598339</v>
+      </c>
+      <c r="P12">
+        <v>0.2825374114598339</v>
+      </c>
+      <c r="Q12">
+        <v>5.280248669638667</v>
+      </c>
+      <c r="R12">
+        <v>47.52223802674801</v>
+      </c>
+      <c r="S12">
+        <v>0.09774048924671613</v>
+      </c>
+      <c r="T12">
+        <v>0.09774048924671613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.888867</v>
+      </c>
+      <c r="H13">
+        <v>17.666601</v>
+      </c>
+      <c r="I13">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="J13">
+        <v>0.3459382201518156</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.212500666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.637502</v>
+      </c>
+      <c r="O13">
+        <v>0.6971668722367386</v>
+      </c>
+      <c r="P13">
+        <v>0.6971668722367386</v>
+      </c>
+      <c r="Q13">
+        <v>13.02912216341133</v>
+      </c>
+      <c r="R13">
+        <v>117.262099470702</v>
+      </c>
+      <c r="S13">
+        <v>0.2411766669303856</v>
+      </c>
+      <c r="T13">
+        <v>0.2411766669303856</v>
       </c>
     </row>
   </sheetData>
